--- a/app/backend/PRE101.xlsx
+++ b/app/backend/PRE101.xlsx
@@ -24,7 +24,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="000000"/>
+        <color rgb="FF0000"/>
       </rPr>
       <t>PRE101 Puni naziv predmeta</t>
     </r>
@@ -82,7 +82,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="000000"/>
+        <color rgb="FF0000"/>
       </rPr>
       <t>5</t>
     </r>
@@ -91,7 +91,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="000000"/>
+        <color rgb="FF0000"/>
       </rPr>
       <t>3</t>
     </r>
@@ -100,7 +100,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="000000"/>
+        <color rgb="FF0000"/>
       </rPr>
       <t>6</t>
     </r>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -230,7 +230,14 @@
       <b/>
     </font>
     <font>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
       <color rgb="000000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -310,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -327,11 +334,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -339,7 +349,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,22 +995,22 @@
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1012,22 +1025,22 @@
       <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>2</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1042,22 +1055,22 @@
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1072,22 +1085,22 @@
       <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1102,46 +1115,46 @@
       <c r="D21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11">
         <v>5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="11">
         <v>3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="11">
         <v>6</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">

--- a/app/backend/PRE101.xlsx
+++ b/app/backend/PRE101.xlsx
@@ -24,7 +24,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t>PRE101 Puni naziv predmeta</t>
     </r>
@@ -82,7 +82,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t>5</t>
     </r>
@@ -91,7 +91,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t>3</t>
     </r>
@@ -100,7 +100,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t>6</t>
     </r>
@@ -184,7 +184,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t xml:space="preserve"> Ime Prezime</t>
     </r>
@@ -196,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t xml:space="preserve"> Ime Prezime</t>
     </r>
@@ -208,7 +208,7 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF0000"/>
+        <color rgb="000000"/>
       </rPr>
       <t xml:space="preserve"> Ime Prezime</t>
     </r>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -230,14 +230,11 @@
       <b/>
     </font>
     <font>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
       <color rgb="000000"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF0000"/>
+      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -317,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -334,14 +331,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -349,10 +343,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,7 +904,9 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
@@ -995,22 +991,30 @@
       <c r="D17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="K17" s="8">
+        <f>E17*H17</f>
+      </c>
+      <c r="L17" s="8">
+        <f>F17*I17</f>
+      </c>
+      <c r="M17" s="8">
+        <f>G17*J17</f>
+      </c>
+      <c r="N17" s="8">
+        <f>SUM(K17:M17)</f>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1025,22 +1029,30 @@
       <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>2</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="K18" s="8">
+        <f>E18*H18</f>
+      </c>
+      <c r="L18" s="8">
+        <f>F18*I18</f>
+      </c>
+      <c r="M18" s="8">
+        <f>G18*J18</f>
+      </c>
+      <c r="N18" s="8">
+        <f>SUM(K18:M18)</f>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1055,22 +1067,30 @@
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="K19" s="8">
+        <f>E19*H19</f>
+      </c>
+      <c r="L19" s="8">
+        <f>F19*I19</f>
+      </c>
+      <c r="M19" s="8">
+        <f>G19*J19</f>
+      </c>
+      <c r="N19" s="8">
+        <f>SUM(K19:M19)</f>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1085,22 +1105,30 @@
       <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>4</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="K20" s="8">
+        <f>E20*H20</f>
+      </c>
+      <c r="L20" s="8">
+        <f>F20*I20</f>
+      </c>
+      <c r="M20" s="8">
+        <f>G20*J20</f>
+      </c>
+      <c r="N20" s="8">
+        <f>SUM(K20:M20)</f>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1115,46 +1143,62 @@
       <c r="D21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="K21" s="8">
+        <f>E21*H21</f>
+      </c>
+      <c r="L21" s="8">
+        <f>F21*I21</f>
+      </c>
+      <c r="M21" s="8">
+        <f>G21*J21</f>
+      </c>
+      <c r="N21" s="8">
+        <f>SUM(K21:M21)</f>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>6</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11">
+        <f>SUM(K17:K21)</f>
+      </c>
+      <c r="L22" s="11">
+        <f>SUM(L17:L21)</f>
+      </c>
+      <c r="M22" s="11">
+        <f>SUM(M17:M21)</f>
+      </c>
+      <c r="N22" s="11">
+        <f>SUM(N17:N21)</f>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
